--- a/biology/Neurosciences/Classe_ATC_N04/Classe_ATC_N04.xlsx
+++ b/biology/Neurosciences/Classe_ATC_N04/Classe_ATC_N04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N04, dénommée « Anti-parkinsoniens », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N04, dénommée « Anti-parkinsoniens », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N04AA Amines tertiaires
-N04AA01 Trihexyphénidyle
+          <t>N04AA Amines tertiaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N04AA01 Trihexyphénidyle
 N04AA02 Bipéridène
 N04AA03 Métixène
 N04AA04 Procyclidine
@@ -523,13 +540,7 @@
 N04AA09 Phenglutarimide
 N04AA10 Mazaticol
 N04AA11 Bornaprine
-N04AA12 Tropatépine
-N04AB Éthers chimiquement proches des antihistaminiques
-N04AB01 Étanautine
-N04AB02 Orphénadrine (chlorure)
-N04AC Éthers de la tropine ou dérivés de la tropine
-N04AC01 Benzatropine
-N04AC30 Étybenzatropine</t>
+N04AA12 Tropatépine</t>
         </is>
       </c>
     </row>
@@ -554,22 +565,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>N04A Agents anticholinergiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N04AB Éthers chimiquement proches des antihistaminiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N04AB01 Étanautine
+N04AB02 Orphénadrine (chlorure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N04A Agents anticholinergiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N04AC Éthers de la tropine ou dérivés de la tropine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N04AC01 Benzatropine
+N04AC30 Étybenzatropine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>N04B Agents dopaminergiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N04BA Dopa et dérivés du dopa
-N04BA01 Lévodopa
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N04BA Dopa et dérivés du dopa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N04BA01 Lévodopa
 N04BA02 Lévodopa et inhibiteur de la décarboxylase
 N04BA03 Lévodopa, inhibiteur de la décarboxylase et inhibiteur COMT
 N04BA04 Mélévodopa
 N04BA05 Mélévodopa et inhibiteur de la décarboxylase
-N04BA06 Étilévodopa et inhibiteur de la décarboxylase
-N04BB Dérivés de l'adamantane
-N04BB01 Amantadine
-N04BC Agonistes de la dopamine
-N04BC01 Bromocriptine
+N04BA06 Étilévodopa et inhibiteur de la décarboxylase</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N04B Agents dopaminergiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N04BB Dérivés de l'adamantane</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N04BB01 Amantadine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N04B Agents dopaminergiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N04BC Agonistes de la dopamine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N04BC01 Bromocriptine
 N04BC02 Pergolide
 N04BC03 Mésilate de dihydroergocryptine
 N04BC04 Ropinirole
@@ -577,13 +735,81 @@
 N04BC06 Cabergoline
 N04BC07 Apomorphine
 N04BC08 Piribédil
-N04BC09 Rotigotine
-N04BD Inhibiteur de la monoamine oxydase B (IMAOB)
-N04BD01 Sélégiline
+N04BC09 Rotigotine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N04B Agents dopaminergiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N04BD Inhibiteur de la monoamine oxydase B (IMAOB)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N04BD01 Sélégiline
 N04BD02 Rasagiline
-N04BD03 Safinamide
-N04BX Autres agents dopaminergiques
-N04BX01 Tolcapone
+N04BD03 Safinamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N04B Agents dopaminergiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N04BX Autres agents dopaminergiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N04BX01 Tolcapone
 N04BX02 Entacapone
 N04BX03 Budipine
 N04BX04 Opicapone</t>
